--- a/hardware_pcb/master_pcb/hw3.3/tme.eu_seznam_soucastek_master_hw3.3.xlsx
+++ b/hardware_pcb/master_pcb/hw3.3/tme.eu_seznam_soucastek_master_hw3.3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pihrt\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\OSPy\hardware_pcb\master_pcb\hw3.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="111">
   <si>
     <t>Seznam součástek (hlavní deska)</t>
   </si>
@@ -282,9 +282,6 @@
   </si>
   <si>
     <t>IC4 SMD</t>
-  </si>
-  <si>
-    <t> PCF8583T</t>
   </si>
   <si>
     <t>http://www.tme.eu/cz/details/pcf8583t_5.518/integrovane-obvody-interface-i2c/nxp/</t>
@@ -363,15 +360,28 @@
       <t>Celkem</t>
     </r>
   </si>
+  <si>
+    <t>https://www.tme.eu/cz/details/1_4w1.0k/uhlikove-rezistory-tht-1-4w/royal-ohm/cfr0w4j0102a50/</t>
+  </si>
+  <si>
+    <t>DS1307 (nebo)</t>
+  </si>
+  <si>
+    <t> PCF8583T (nebo)</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/cz/details/bc557b-dio/tranzistory-pnp-tht/diotec-semiconductor/bc557b/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;Kč&quot;;[Red]\-#,##0.00\ &quot;Kč&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;Kč&quot;;[Red]#,##0.00\ &quot;Kč&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,6 +399,24 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -398,7 +426,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -406,24 +434,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -705,7 +768,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -732,733 +795,769 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="6">
         <v>26</v>
       </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <f>D4*E4</f>
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" ref="F5:F39" si="0">D5*E5</f>
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="6">
         <v>0.2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="7">
         <v>15</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="8">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="6">
         <v>0.2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="7">
         <v>6</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E8" s="7">
+        <v>3</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="0"/>
+        <v>13.200000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="7">
+        <v>4</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E10" s="7">
+        <v>10</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="E11" s="7">
+        <v>14</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>19.599999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="6">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E8" s="2">
-        <v>3</v>
-      </c>
-      <c r="F8" s="4">
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E15" s="7">
+        <v>9</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="6">
+        <v>61</v>
+      </c>
+      <c r="E16" s="7">
+        <v>9</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="0"/>
+        <v>549</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="E17" s="7">
+        <v>15</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="0"/>
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="6">
+        <v>18.7</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="0"/>
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="0"/>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="E20" s="7">
+        <v>8</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="0"/>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="6">
+        <v>10.3</v>
+      </c>
+      <c r="E21" s="7">
+        <v>6</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="0"/>
+        <v>61.800000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="E25" s="7">
+        <v>2</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="6">
+        <v>7.9</v>
+      </c>
+      <c r="E26" s="7">
+        <v>6</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="0"/>
+        <v>47.400000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="6">
+        <v>6</v>
+      </c>
+      <c r="E27" s="7">
+        <v>2</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="6">
+        <v>53.6</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" si="0"/>
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="6">
+        <v>55</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="6">
+        <v>18</v>
+      </c>
+      <c r="E33" s="7">
+        <v>2</v>
+      </c>
+      <c r="F33" s="8">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="6">
+        <v>10.3</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" si="0"/>
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="6">
+        <v>194</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1</v>
+      </c>
+      <c r="F35" s="8">
+        <f t="shared" si="0"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="6">
+        <v>11</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1</v>
+      </c>
+      <c r="F36" s="8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="6">
         <v>24</v>
       </c>
-      <c r="D9" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="E9" s="2">
-        <v>4</v>
-      </c>
-      <c r="F9" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="E10" s="2">
-        <v>10</v>
-      </c>
-      <c r="F10" s="4">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="E11" s="2">
-        <v>14</v>
-      </c>
-      <c r="F11" s="4">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>4</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="E15" s="2">
-        <v>9</v>
-      </c>
-      <c r="F15" s="4">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="4">
-        <v>61</v>
-      </c>
-      <c r="E16" s="2">
-        <v>9</v>
-      </c>
-      <c r="F16" s="4">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="E17" s="2">
-        <v>15</v>
-      </c>
-      <c r="F17" s="4">
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="4">
-        <v>18.7</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4">
-        <v>18.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="4">
-        <v>7.6</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="E20" s="2">
-        <v>8</v>
-      </c>
-      <c r="F20" s="4">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="4">
-        <v>10.3</v>
-      </c>
-      <c r="E21" s="2">
-        <v>6</v>
-      </c>
-      <c r="F21" s="4">
-        <v>61.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2</v>
-      </c>
-      <c r="F23" s="4">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="4">
-        <v>2.4</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2</v>
-      </c>
-      <c r="F25" s="4">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="4">
-        <v>7.9</v>
-      </c>
-      <c r="E26" s="2">
-        <v>6</v>
-      </c>
-      <c r="F26" s="4">
-        <v>47.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="4">
-        <v>6</v>
-      </c>
-      <c r="E27" s="2">
-        <v>2</v>
-      </c>
-      <c r="F27" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1</v>
-      </c>
-      <c r="F28" s="4">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="4">
-        <v>53.6</v>
-      </c>
-      <c r="E30" s="2">
-        <v>1</v>
-      </c>
-      <c r="F30" s="4">
-        <v>53.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2">
-        <v>1</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="4">
-        <v>55</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
-      <c r="F32" s="4">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="4">
-        <v>18</v>
-      </c>
-      <c r="E33" s="2">
-        <v>2</v>
-      </c>
-      <c r="F33" s="4">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="4">
-        <v>10.3</v>
-      </c>
-      <c r="E34" s="2">
-        <v>1</v>
-      </c>
-      <c r="F34" s="4">
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="4">
-        <v>194</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
-      <c r="F35" s="4">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="4">
-        <v>11</v>
-      </c>
-      <c r="E36" s="2">
-        <v>1</v>
-      </c>
-      <c r="F36" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="E37" s="7">
+        <v>1</v>
+      </c>
+      <c r="F37" s="8">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D37" s="4">
-        <v>24</v>
-      </c>
-      <c r="E37" s="2">
-        <v>1</v>
-      </c>
-      <c r="F37" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="B38" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="6">
+        <v>218</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1</v>
+      </c>
+      <c r="F38" s="8">
+        <f t="shared" si="0"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="4">
-        <v>218</v>
-      </c>
-      <c r="E38" s="2">
-        <v>1</v>
-      </c>
-      <c r="F38" s="4">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="B39" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D39" s="4">
+      <c r="D39" s="6">
         <v>1259</v>
       </c>
-      <c r="E39" s="2">
-        <v>1</v>
-      </c>
-      <c r="F39" s="4">
+      <c r="E39" s="7">
+        <v>1</v>
+      </c>
+      <c r="F39" s="8">
+        <f t="shared" si="0"/>
         <v>1259</v>
       </c>
     </row>
@@ -1468,13 +1567,52 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F40" s="4">
-        <v>2781.2</v>
+        <v>106</v>
+      </c>
+      <c r="F40" s="10">
+        <f>SUM(F4:F39)</f>
+        <v>2782.7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C12" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C8" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C14" r:id="rId7"/>
+    <hyperlink ref="C16" r:id="rId8"/>
+    <hyperlink ref="C18" r:id="rId9"/>
+    <hyperlink ref="C20" r:id="rId10"/>
+    <hyperlink ref="C22" r:id="rId11"/>
+    <hyperlink ref="C25" r:id="rId12"/>
+    <hyperlink ref="C27" r:id="rId13"/>
+    <hyperlink ref="C29" r:id="rId14"/>
+    <hyperlink ref="C31" r:id="rId15"/>
+    <hyperlink ref="C33" r:id="rId16"/>
+    <hyperlink ref="C35" r:id="rId17"/>
+    <hyperlink ref="C37" r:id="rId18"/>
+    <hyperlink ref="C39" r:id="rId19"/>
+    <hyperlink ref="C7" r:id="rId20"/>
+    <hyperlink ref="C9" r:id="rId21"/>
+    <hyperlink ref="C11" r:id="rId22"/>
+    <hyperlink ref="C13" r:id="rId23"/>
+    <hyperlink ref="C17" r:id="rId24"/>
+    <hyperlink ref="C15" r:id="rId25"/>
+    <hyperlink ref="C19" r:id="rId26"/>
+    <hyperlink ref="C21" r:id="rId27"/>
+    <hyperlink ref="C23" r:id="rId28"/>
+    <hyperlink ref="C26" r:id="rId29"/>
+    <hyperlink ref="C28" r:id="rId30"/>
+    <hyperlink ref="C30" r:id="rId31"/>
+    <hyperlink ref="C32" r:id="rId32"/>
+    <hyperlink ref="C34" r:id="rId33"/>
+    <hyperlink ref="C36" r:id="rId34"/>
+    <hyperlink ref="C38" r:id="rId35"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>